--- a/biology/Botanique/Androsace/Androsace.xlsx
+++ b/biology/Botanique/Androsace/Androsace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androsace (les androsaces) est un genre de plantes à fleurs de la famille des Primulacées.
 Ce sont de petites plantes herbacées vivaces ou annuelles et sont caractérisées par des feuilles en rosettes basales, des fleurs solitaires ou en ombelles simples. Les fleurs sont de couleur blanche ou rosée.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Androsace, est emprunté au latin Androsaces, attesté chez Pline, qui est une transcription du grec, ἀνδρόσακες (andrósakes, composé de ἀνήρ, gén. ἀνδρός, « homme », et σάκος, « bouclier »), attesté chez Dioscoride, qui désignait une espèce d'algue du littoral syrien, l'acétabulaire (Acetabularia acetabulum), dont « la tige nue se termine par une feuille concave en forme de bouclier »[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Androsace, est emprunté au latin Androsaces, attesté chez Pline, qui est une transcription du grec, ἀνδρόσακες (andrósakes, composé de ἀνήρ, gén. ἀνδρός, « homme », et σάκος, « bouclier »), attesté chez Dioscoride, qui désignait une espèce d'algue du littoral syrien, l'acétabulaire (Acetabularia acetabulum), dont « la tige nue se termine par une feuille concave en forme de bouclier »,.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les androsaces sont des plantes herbacées annuelles, bisannuelles ou vivaces, généralement acaules dont les pousses issues d'un caudex (souche) sont dressées ou décombantes.
-Les feuilles sont groupées en rosettes, plus rarement alternes. Les rosettes, parfois solitaires, sont généralement groupées en tapis lâches ou en coussins compacts[3].
+Les feuilles sont groupées en rosettes, plus rarement alternes. Les rosettes, parfois solitaires, sont généralement groupées en tapis lâches ou en coussins compacts.
 Les fleurs, à symétrie pentamère, sont rarement solitaires, le plus souvent groupées en ombelles.  Elles présentent un calice campanulé à subglobuleux, plus ou moins profondément lobé et une corolle tubulaire avec des lobes entiers ou émarginés, de couleur blanche, rose, violette ou rouge foncé, rarement jaune. Les étamines, aux filaments très courts et aux anthères ovales, sont insérées sur le tube de la corolle.
-Le fruit est une capsule subglobuleuse, déhiscente près de la base[3].
+Le fruit est une capsule subglobuleuse, déhiscente près de la base.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition du genre Androsace, essentiellement arctico-alpine, est très étendue et comprend une grande partis de l'hémisphère nord, ainsi que la pointe sud de l'Amérique du Sud[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition du genre Androsace, essentiellement arctico-alpine, est très étendue et comprend une grande partis de l'hémisphère nord, ainsi que la pointe sud de l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -611,14 +629,53 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon BioLib                    (29 avril 2019)[5] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (29 avril 2019) :
 Aretia L.
 Gregoria Duby
 Pseudoprimula (Pax) O. Schwarz
-Vitaliana Sesl.
-Liste d'espèces
-Selon The Plant List            (29 avril 2019)[6], avec des ajouts de trois nouvelles espèces dans les Alpes[7]:
+Vitaliana Sesl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Androsace</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Androsace</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (29 avril 2019), avec des ajouts de trois nouvelles espèces dans les Alpes:
 Androsace adenocephala Hand.-Mazz.
 Androsace adfinis Biroli
 Androsace aflatunensis Ovcz.
@@ -796,41 +853,46 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Androsace</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Androsace</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Europe
-En Europe, on rencontre une vingtaine d'espèces. Certaines sont strictement européennes.
-Androsace alpina, l'androsace des Alpes est endémique de la chaîne des Alpes. Elle a récemment été scindée en deux espèces : Androsace alpina et Androsace vesulensis, caractéristique des massifs ophiolitiques[7].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En Europe, on rencontre une vingtaine d'espèces. Certaines sont strictement européennes.
+Androsace alpina, l'androsace des Alpes est endémique de la chaîne des Alpes. Elle a récemment été scindée en deux espèces : Androsace alpina et Androsace vesulensis, caractéristique des massifs ophiolitiques.
 Androsace carnea, l'androsace carnée pousse sur les pelouses et rocailles des montagnes d'Europe de l'Ouest.
 Androsace lactea, l'androsace lactée pousse les hautes montagnes calcaires d'Europe de l'ouest et d'Europe centrale.
 Androsace cylindrica, l'espèce de l'androsace cylindrique et de l'androsace hirsute est endémique des Pyrénées.
 Androsace chamaejasme, l'androsace petit jasmin, est une espèce rare que l'on retrouve sur les hautes montagnes d'Europe, mais aussi d'Asie et d'Amérique du Nord.
 Androsace villosa, l'androsace velue, pousse dans les pelouses sèches des montagnes d'Europe de l'ouest, d'Europe centrale mais aussi de l'ensemble de l'Asie.
-Une autre primulacée, Vitaliana primuliflora, est parfois citée en tant que Androsace vitaliana (L.) Lapeyr., classée par d'autres sous Vitaliana Sesler « Ses fleurs sont hétérostyles, le calice de la forme conique, et la corolle de couleur jaune »[8].
+Une autre primulacée, Vitaliana primuliflora, est parfois citée en tant que Androsace vitaliana (L.) Lapeyr., classée par d'autres sous Vitaliana Sesler « Ses fleurs sont hétérostyles, le calice de la forme conique, et la corolle de couleur jaune ».
 Androsace brevis
 Androsace chaixi, l'androsace de Chaix
 Androsace ciliata, l'androsace ciliée
@@ -850,10 +912,43 @@
 Androsace vandellii, l'androsace de Vandelli
 Androsace vesulensis, l'androsace du mont Viso, une nouvelle Androsace du groupe alpina
 Androsace vitaliana, ou Gregoria vitaliana, l'androsace de Vital
-Androsace wulfeniana, l'androsace de Wulfen
-Asie
-Amérique du Nord
-Selon ITIS      (28 déc. 2016)[9] :
+Androsace wulfeniana, l'androsace de Wulfen</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Androsace</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Androsace</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (28 déc. 2016) :
 Androsace alaskana Coville &amp; Standl. ex Hultén
 Androsace americana Wendelbo
 Androsace beringensis (S. Kelso, Jurtzev &amp; D.F. Murray) Cubey
